--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB680.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB680.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A39510-319B-4711-9729-5E9DD97EDBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9E4C7-4E11-4D85-A36E-B5C4B7A01AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>Key ID</t>
@@ -641,6 +638,9 @@
 C:異動
 D:刪除</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,10 +905,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,7 +926,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,9 +935,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -953,19 +950,16 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -985,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1044,9 +1035,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1084,9 +1075,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,26 +1110,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,26 +1145,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,129 +1324,129 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="26.109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.44140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="53" style="34" customWidth="1"/>
+    <col min="7" max="7" width="56.44140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="53" style="31" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="41"/>
+      <c r="A3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="38"/>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="41"/>
+      <c r="A5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="38"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="41"/>
+      <c r="A6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="38"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="41"/>
+      <c r="A7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="38"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="18"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -1506,51 +1463,51 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="G8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>3</v>
@@ -1559,28 +1516,28 @@
         <v>3</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="29">
+      <c r="G10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="J10" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>3</v>
@@ -1589,28 +1546,28 @@
         <v>4</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="G11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="27">
         <v>2</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="J11" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -1619,28 +1576,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="G12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="27">
         <v>3</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="J12" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>3</v>
@@ -1649,28 +1606,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="27">
+        <v>4</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="29">
-        <v>4</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1679,112 +1636,112 @@
         <v>1</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="29">
+      <c r="G14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="27">
         <v>5</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="J14" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9">
         <v>7</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="28" t="s">
+      <c r="G15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="H15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="9">
         <v>3</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="G16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9">
         <v>3</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="G17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>3</v>
@@ -1793,86 +1750,86 @@
         <v>40</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="29">
+      <c r="G18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="27">
         <v>6</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="J18" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9">
         <v>10</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="27">
+        <v>7</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="29">
-        <v>7</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9">
         <v>5</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="29">
+      <c r="G20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="27">
         <v>8</v>
       </c>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -1881,94 +1838,90 @@
         <v>54</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="29">
+      <c r="G21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="27">
         <v>9</v>
       </c>
-      <c r="J21" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="J21" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9">
-        <v>8</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="34"/>
-    </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="9">
         <v>6</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="G23" s="16"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="9">
-        <v>8</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="G24" s="16"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -1977,86 +1930,86 @@
         <v>6</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="33"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="J45" s="33"/>
+      <c r="A45" s="15"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="J46" s="33"/>
+      <c r="A46" s="15"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="J47" s="33"/>
+      <c r="A47" s="15"/>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="J48" s="33"/>
+      <c r="A48" s="15"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="33"/>
+      <c r="J49" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2072,7 +2025,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD2 A26:XFD1048576 A1:B1 E1:XFD1 A9 D9 F9 F19 K19:XFD19 K8:XFD8 B22:I22 A4:XFD7 B3 D3:XFD3 H9:I9 A8:I8 B24:XFD25 B23:F23 H23:XFD23 K22:XFD22 K9:XFD9" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD2 A26:XFD1048576 A1:B1 E1:XFD1 A9 D9 F9 F19 K19:XFD19 K8:XFD8 B22:C22 A4:XFD7 B3 D3:XFD3 H9:I9 A8:I8 B25:XFD25 B23:F23 H23:XFD23 K22:XFD22 K9:XFD9 F22:I22 B24:C24 F24:XFD24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2122,32 +2075,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="33.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2166,283 +2119,283 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="136.109375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="37" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="37" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="37" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="37" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="37" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="37" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="37" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="37" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="37" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="37" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="37" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="37" t="s">
-        <v>94</v>
+      <c r="A171" s="34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="37" t="s">
-        <v>84</v>
+      <c r="A172" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2462,64 +2415,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="136.109375" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>84</v>
+      <c r="A12" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
